--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col4a3-Cd47.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H2">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I2">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J2">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N2">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P2">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q2">
-        <v>25.53711782276934</v>
+        <v>12.44617992746845</v>
       </c>
       <c r="R2">
-        <v>229.834060404924</v>
+        <v>112.015619347216</v>
       </c>
       <c r="S2">
-        <v>0.09434486050504544</v>
+        <v>0.05594493716467849</v>
       </c>
       <c r="T2">
-        <v>0.09434486050504544</v>
+        <v>0.05594493716467849</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H3">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I3">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J3">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>194.521294</v>
       </c>
       <c r="O3">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P3">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q3">
-        <v>28.80793362360956</v>
+        <v>14.06968196806578</v>
       </c>
       <c r="R3">
-        <v>259.271402612486</v>
+        <v>126.627137712592</v>
       </c>
       <c r="S3">
-        <v>0.1064286305925543</v>
+        <v>0.06324249514449624</v>
       </c>
       <c r="T3">
-        <v>0.1064286305925543</v>
+        <v>0.06324249514449624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H4">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I4">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J4">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N4">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O4">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P4">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q4">
-        <v>13.50805092320578</v>
+        <v>6.356678868162666</v>
       </c>
       <c r="R4">
-        <v>121.572458308852</v>
+        <v>57.21010981346399</v>
       </c>
       <c r="S4">
-        <v>0.04990442495858357</v>
+        <v>0.02857294382114351</v>
       </c>
       <c r="T4">
-        <v>0.04990442495858358</v>
+        <v>0.02857294382114351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4442896666666667</v>
+        <v>0.2169893333333333</v>
       </c>
       <c r="H5">
-        <v>1.332869</v>
+        <v>0.650968</v>
       </c>
       <c r="I5">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="J5">
-        <v>0.3907142741981582</v>
+        <v>0.2138091362408864</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N5">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O5">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P5">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q5">
-        <v>37.90482023291445</v>
+        <v>14.69399724058222</v>
       </c>
       <c r="R5">
-        <v>341.14338209623</v>
+        <v>132.24597516524</v>
       </c>
       <c r="S5">
-        <v>0.1400363581419749</v>
+        <v>0.06604876011056812</v>
       </c>
       <c r="T5">
-        <v>0.1400363581419749</v>
+        <v>0.06604876011056812</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.996332</v>
       </c>
       <c r="I6">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J6">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N6">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P6">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q6">
-        <v>19.08923358154133</v>
+        <v>19.04936546726489</v>
       </c>
       <c r="R6">
-        <v>171.803102233872</v>
+        <v>171.444289205384</v>
       </c>
       <c r="S6">
-        <v>0.07052366253301183</v>
+        <v>0.08562591576722427</v>
       </c>
       <c r="T6">
-        <v>0.07052366253301182</v>
+        <v>0.08562591576722427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.996332</v>
       </c>
       <c r="I7">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J7">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>194.521294</v>
       </c>
       <c r="O7">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P7">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q7">
         <v>21.53419887706756</v>
@@ -883,10 +883,10 @@
         <v>193.807789893608</v>
       </c>
       <c r="S7">
-        <v>0.07955639329562081</v>
+        <v>0.09679511384938466</v>
       </c>
       <c r="T7">
-        <v>0.07955639329562081</v>
+        <v>0.09679511384938466</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.996332</v>
       </c>
       <c r="I8">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J8">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N8">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O8">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P8">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q8">
-        <v>10.09739396176178</v>
+        <v>9.729145779937332</v>
       </c>
       <c r="R8">
-        <v>90.87654565585599</v>
+        <v>87.56231201943599</v>
       </c>
       <c r="S8">
-        <v>0.0373040227718069</v>
+        <v>0.04373200873653936</v>
       </c>
       <c r="T8">
-        <v>0.0373040227718069</v>
+        <v>0.04373200873653936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.996332</v>
       </c>
       <c r="I9">
-        <v>0.2920625614673306</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="J9">
-        <v>0.2920625614673305</v>
+        <v>0.3272432505578689</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N9">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O9">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P9">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q9">
-        <v>28.33420640160444</v>
+        <v>22.48973783458445</v>
       </c>
       <c r="R9">
-        <v>255.00785761444</v>
+        <v>202.40764051126</v>
       </c>
       <c r="S9">
-        <v>0.104678482866891</v>
+        <v>0.1010902122047206</v>
       </c>
       <c r="T9">
-        <v>0.104678482866891</v>
+        <v>0.1010902122047206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H10">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I10">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J10">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N10">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P10">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q10">
-        <v>17.29831748148533</v>
+        <v>23.72775312812089</v>
       </c>
       <c r="R10">
-        <v>155.684857333368</v>
+        <v>213.549778153088</v>
       </c>
       <c r="S10">
-        <v>0.06390726475434895</v>
+        <v>0.1066550271286115</v>
       </c>
       <c r="T10">
-        <v>0.06390726475434894</v>
+        <v>0.1066550271286115</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H11">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I11">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J11">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>194.521294</v>
       </c>
       <c r="O11">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P11">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q11">
-        <v>19.51390071758356</v>
+        <v>26.82284381833956</v>
       </c>
       <c r="R11">
-        <v>175.625106458252</v>
+        <v>241.405594365056</v>
       </c>
       <c r="S11">
-        <v>0.07209256165424539</v>
+        <v>0.1205673002270516</v>
       </c>
       <c r="T11">
-        <v>0.07209256165424538</v>
+        <v>0.1205673002270516</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H12">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I12">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J12">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N12">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O12">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P12">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q12">
-        <v>9.150075394073777</v>
+        <v>12.11855426946133</v>
       </c>
       <c r="R12">
-        <v>82.350678546664</v>
+        <v>109.066988425152</v>
       </c>
       <c r="S12">
-        <v>0.03380422930479804</v>
+        <v>0.05447227672126863</v>
       </c>
       <c r="T12">
-        <v>0.03380422930479803</v>
+        <v>0.05447227672126864</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3009526666666667</v>
+        <v>0.4136746666666666</v>
       </c>
       <c r="H13">
-        <v>0.902858</v>
+        <v>1.241024</v>
       </c>
       <c r="I13">
-        <v>0.2646617996022121</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="J13">
-        <v>0.264661799602212</v>
+        <v>0.4076118480389355</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N13">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O13">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P13">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q13">
-        <v>25.67594428698445</v>
+        <v>28.01305629692444</v>
       </c>
       <c r="R13">
-        <v>231.08349858286</v>
+        <v>252.11750667232</v>
       </c>
       <c r="S13">
-        <v>0.09485774388881968</v>
+        <v>0.1259172439620038</v>
       </c>
       <c r="T13">
-        <v>0.09485774388881967</v>
+        <v>0.1259172439620038</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H14">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I14">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J14">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.478532</v>
+        <v>57.35848733333334</v>
       </c>
       <c r="N14">
-        <v>172.435596</v>
+        <v>172.075462</v>
       </c>
       <c r="O14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="P14">
-        <v>0.2414676574042868</v>
+        <v>0.261658309594631</v>
       </c>
       <c r="Q14">
-        <v>3.435415219597333</v>
+        <v>2.988338951075112</v>
       </c>
       <c r="R14">
-        <v>30.918736976376</v>
+        <v>26.895050559676</v>
       </c>
       <c r="S14">
-        <v>0.01269186961188059</v>
+        <v>0.01343242953411676</v>
       </c>
       <c r="T14">
-        <v>0.01269186961188059</v>
+        <v>0.01343242953411676</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H15">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I15">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J15">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>194.521294</v>
       </c>
       <c r="O15">
-        <v>0.272395040623924</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="P15">
-        <v>0.2723950406239241</v>
+        <v>0.2957894889638607</v>
       </c>
       <c r="Q15">
-        <v>3.875426126884889</v>
+        <v>3.378143245512445</v>
       </c>
       <c r="R15">
-        <v>34.878835141964</v>
+        <v>30.40328920961201</v>
       </c>
       <c r="S15">
-        <v>0.01431745508150354</v>
+        <v>0.01518457974292819</v>
       </c>
       <c r="T15">
-        <v>0.01431745508150354</v>
+        <v>0.01518457974292819</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H16">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I16">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J16">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.40370266666666</v>
+        <v>29.294891</v>
       </c>
       <c r="N16">
-        <v>91.211108</v>
+        <v>87.88467299999999</v>
       </c>
       <c r="O16">
-        <v>0.1277261371138787</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="P16">
-        <v>0.1277261371138788</v>
+        <v>0.1336376186888105</v>
       </c>
       <c r="Q16">
-        <v>1.817188770116444</v>
+        <v>1.526244291172667</v>
       </c>
       <c r="R16">
-        <v>16.354698931048</v>
+        <v>13.736198620554</v>
       </c>
       <c r="S16">
-        <v>0.006713460078690243</v>
+        <v>0.006860389409858992</v>
       </c>
       <c r="T16">
-        <v>0.006713460078690244</v>
+        <v>0.006860389409858993</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05976866666666666</v>
+        <v>0.05209933333333334</v>
       </c>
       <c r="H17">
-        <v>0.179306</v>
+        <v>0.156298</v>
       </c>
       <c r="I17">
-        <v>0.05256136473229924</v>
+        <v>0.05133576516230915</v>
       </c>
       <c r="J17">
-        <v>0.05256136473229923</v>
+        <v>0.05133576516230916</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>85.31555666666667</v>
+        <v>67.71760166666667</v>
       </c>
       <c r="N17">
-        <v>255.94667</v>
+        <v>203.152805</v>
       </c>
       <c r="O17">
-        <v>0.3584111648579104</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="P17">
-        <v>0.3584111648579105</v>
+        <v>0.3089145827526977</v>
       </c>
       <c r="Q17">
-        <v>5.099197067891111</v>
+        <v>3.528041901765556</v>
       </c>
       <c r="R17">
-        <v>45.89277361102</v>
+        <v>31.75237711589</v>
       </c>
       <c r="S17">
-        <v>0.01883857996022486</v>
+        <v>0.01585836647540521</v>
       </c>
       <c r="T17">
-        <v>0.01883857996022486</v>
+        <v>0.01585836647540521</v>
       </c>
     </row>
   </sheetData>
